--- a/files/nomogram_config.xlsx
+++ b/files/nomogram_config.xlsx
@@ -349,13 +349,13 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
+      <selection pane="topLeft" activeCell="F33" activeCellId="0" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="23.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="23.69"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -379,545 +379,545 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>0.0994730284821762</v>
+      <c r="B2" s="1" t="n">
+        <v>-0.0432111873456151</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>-0.0994290272088023</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="0" t="n">
+      <c r="B4" s="1" t="n">
+        <v>0.0782767230189904</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>0.0464202573522817</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="0" t="n">
+      <c r="B5" s="1" t="n">
+        <v>0.125826503546993</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>0.0743655237335145</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="0" t="n">
+      <c r="B6" s="1" t="n">
+        <v>-0.247757576456987</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>-0.152064133501705</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="0" t="n">
+      <c r="B7" s="1" t="n">
+        <v>0.219209940266009</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <v>0.132549432607566</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="0" t="n">
+      <c r="B8" s="1" t="n">
+        <v>-0.166226416314573</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="0" t="n">
-        <v>-0.108866455210365</v>
-      </c>
-      <c r="C9" s="0" t="n">
+      <c r="B9" s="1" t="n">
+        <v>-0.40303559464867</v>
+      </c>
+      <c r="C9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="0" t="n">
-        <v>-0.284489433057162</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="0" t="n">
+      <c r="B10" s="1" t="n">
+        <v>-0.026793946490856</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="0" t="n">
-        <v>-0.0100011456858158</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="0" t="n">
+      <c r="B11" s="1" t="n">
+        <v>-0.0696363644839897</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="0" t="n">
-        <v>-0.074546292689756</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="0" t="n">
+      <c r="B12" s="1" t="n">
+        <v>0.0180003910644494</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="0" t="n">
-        <v>0.0236084565019775</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="0" t="n">
+      <c r="B13" s="1" t="n">
+        <v>0.00242608253319177</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1" t="n">
         <v>116</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="0" t="n">
-        <v>-0.00178752153472841</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="0" t="n">
+      <c r="B14" s="1" t="n">
+        <v>-0.0523102858961883</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1" t="n">
         <v>116</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="0" t="n">
-        <v>-0.0468575328665469</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="0" t="n">
+      <c r="B15" s="1" t="n">
+        <v>0.0206735450015778</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="0" t="n">
-        <v>0.0538941940626455</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="0" t="n">
+      <c r="B16" s="1" t="n">
+        <v>-0.0791042323870516</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1" t="n">
         <v>117</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="0" t="n">
-        <v>-0.0568586785523822</v>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="0" t="n">
+      <c r="B17" s="1" t="n">
+        <v>-0.183927491421657</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="E17" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="0" t="n">
-        <v>-0.150005258167286</v>
-      </c>
-      <c r="C18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="0" t="n">
+      <c r="B18" s="1" t="n">
+        <v>0.016173314573017</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="E18" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="0" t="n">
-        <v>0.0466147698317335</v>
-      </c>
-      <c r="C19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" s="0" t="n">
+      <c r="B19" s="1" t="n">
+        <v>0.0731609185851982</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="E19" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="0" t="n">
-        <v>0.04514135860598</v>
-      </c>
-      <c r="C20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" s="0" t="n">
+      <c r="B20" s="1" t="n">
+        <v>0.0154890258763852</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="E20" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="0" t="n">
-        <v>0.00139045117716684</v>
-      </c>
-      <c r="C21" s="0" t="n">
+      <c r="B21" s="1" t="n">
+        <v>0.0407572323803682</v>
+      </c>
+      <c r="C21" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D21" s="1" t="n">
         <v>1387</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="E21" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="0" t="n">
-        <v>0.0333983757877442</v>
-      </c>
-      <c r="C22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" s="0" t="n">
+      <c r="B22" s="1" t="n">
+        <v>-0.0630249461821681</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1" t="n">
         <v>188</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="E22" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="0" t="n">
-        <v>-0.047345843665664</v>
-      </c>
-      <c r="C23" s="0" t="n">
+      <c r="B23" s="1" t="n">
+        <v>0.00276289506474475</v>
+      </c>
+      <c r="C23" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="D23" s="1" t="n">
         <v>999</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="E23" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="0" t="n">
-        <v>-0.0149013938276855</v>
-      </c>
-      <c r="C24" s="0" t="n">
+      <c r="B24" s="1" t="n">
+        <v>-0.024196759163151</v>
+      </c>
+      <c r="C24" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="D24" s="1" t="n">
         <v>368</v>
       </c>
-      <c r="E24" s="0" t="s">
+      <c r="E24" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="0" t="n">
-        <v>-0.0163750908797307</v>
-      </c>
-      <c r="C25" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" s="0" t="n">
+      <c r="B25" s="1" t="n">
+        <v>-0.0251763345735801</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1" t="n">
         <v>690</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="E25" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="0" t="n">
-        <v>-0.00380081820792619</v>
-      </c>
-      <c r="C26" s="0" t="n">
+      <c r="B26" s="1" t="n">
+        <v>-0.0478827124829232</v>
+      </c>
+      <c r="C26" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="D26" s="1" t="n">
         <v>371</v>
       </c>
-      <c r="E26" s="0" t="s">
+      <c r="E26" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="0" t="n">
-        <v>-0.0376265123996391</v>
-      </c>
-      <c r="C27" s="0" t="n">
+      <c r="B27" s="1" t="n">
+        <v>-0.02000729936629</v>
+      </c>
+      <c r="C27" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="D27" s="1" t="n">
         <v>633</v>
       </c>
-      <c r="E27" s="0" t="s">
+      <c r="E27" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="0" t="n">
-        <v>-0.0393165042024209</v>
-      </c>
-      <c r="C28" s="0" t="n">
+      <c r="B28" s="1" t="n">
+        <v>0.02318152983008</v>
+      </c>
+      <c r="C28" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="D28" s="1" t="n">
         <v>724</v>
       </c>
-      <c r="E28" s="0" t="s">
+      <c r="E28" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="0" t="n">
-        <v>0.033952019879627</v>
-      </c>
-      <c r="C29" s="0" t="n">
+      <c r="B29" s="1" t="n">
+        <v>0.0305423080721117</v>
+      </c>
+      <c r="C29" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D29" s="0" t="n">
+      <c r="D29" s="1" t="n">
         <v>299</v>
       </c>
-      <c r="E29" s="0" t="s">
+      <c r="E29" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="0" t="n">
-        <v>0.0386634945592499</v>
-      </c>
-      <c r="C30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" s="0" t="n">
+      <c r="B30" s="1" t="n">
+        <v>-0.01793644923964</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1" t="n">
         <v>555</v>
       </c>
-      <c r="E30" s="0" t="s">
+      <c r="E30" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="0" t="n">
-        <v>-0.00874957564100248</v>
-      </c>
-      <c r="C31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" s="0" t="n">
+      <c r="B31" s="1" t="n">
+        <v>0.0298684184353461</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="E31" s="0" t="s">
+      <c r="E31" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="0" t="n">
-        <v>0.00648060895199851</v>
-      </c>
-      <c r="C32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" s="0" t="n">
+      <c r="B32" s="1" t="n">
+        <v>0.0745329980314149</v>
+      </c>
+      <c r="C32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="E32" s="0" t="s">
+      <c r="E32" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="0" t="n">
-        <v>0.0356404228439418</v>
-      </c>
-      <c r="C33" s="0" t="n">
+      <c r="B33" s="1" t="n">
+        <v>-0.695086594249254</v>
+      </c>
+      <c r="C33" s="1" t="n">
         <v>0.02</v>
       </c>
-      <c r="D33" s="0" t="n">
+      <c r="D33" s="1" t="n">
         <v>7.5</v>
       </c>
-      <c r="E33" s="0" t="s">
+      <c r="E33" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="0" t="n">
-        <v>-0.370764086229618</v>
-      </c>
-      <c r="C34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D34" s="0" t="n">
+      <c r="B34" s="1" t="n">
+        <v>-0.0432111873456151</v>
+      </c>
+      <c r="C34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1" t="n">
         <v>244</v>
       </c>
-      <c r="E34" s="0" t="s">
+      <c r="E34" s="1" t="s">
         <v>9</v>
       </c>
     </row>
